--- a/data/trans_orig/P25F_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P25F_2023-Estudios-trans_orig.xlsx
@@ -788,19 +788,19 @@
         <v>4559</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1222</v>
+        <v>1111</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8794</v>
+        <v>8682</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.45613042945921</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1222602104990497</v>
+        <v>0.111112982500297</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8797084268642288</v>
+        <v>0.8685500545957252</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -830,19 +830,19 @@
         <v>4945</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1001</v>
+        <v>1407</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>8861</v>
+        <v>9274</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.4524270909828374</v>
+        <v>0.4524270909828373</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09157696973190295</v>
+        <v>0.1287547900962148</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8106369620641209</v>
+        <v>0.8483829345106126</v>
       </c>
     </row>
     <row r="6">
@@ -859,19 +859,19 @@
         <v>4582</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1291</v>
+        <v>810</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8510</v>
+        <v>8533</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4583493910726252</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.129131059889411</v>
+        <v>0.08106660970283396</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8513109421186242</v>
+        <v>0.8536734826445711</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -901,19 +901,19 @@
         <v>5131</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1722</v>
+        <v>1125</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>9595</v>
+        <v>9051</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4693688535132872</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1574951707108284</v>
+        <v>0.1028733770598975</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8777714754266674</v>
+        <v>0.8280056820002043</v>
       </c>
     </row>
     <row r="7">
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4330</v>
+        <v>4481</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.08552017946816486</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.433123508751039</v>
+        <v>0.4482363462716659</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -1014,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4906</v>
+        <v>4550</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.07820405550387544</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4487840470361236</v>
+        <v>0.4162729022602524</v>
       </c>
     </row>
     <row r="9">
@@ -1115,19 +1115,19 @@
         <v>3704</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10675</v>
+        <v>10326</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.04342507530820081</v>
+        <v>0.04342507530820082</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01266374554289883</v>
+        <v>0.01269512985358089</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1251422664037561</v>
+        <v>0.1210589427348574</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -1136,19 +1136,19 @@
         <v>4025</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>721</v>
+        <v>880</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12939</v>
+        <v>12712</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07985275308040392</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01429494026110971</v>
+        <v>0.0174623537504843</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2567045406373641</v>
+        <v>0.2522034677538891</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -1157,19 +1157,19 @@
         <v>7729</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2939</v>
+        <v>2858</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17317</v>
+        <v>16981</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.05695496016823508</v>
+        <v>0.05695496016823507</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02165420548114397</v>
+        <v>0.02106422536311577</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1276113674696102</v>
+        <v>0.1251332263141744</v>
       </c>
     </row>
     <row r="11">
@@ -1186,19 +1186,19 @@
         <v>39134</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>26177</v>
+        <v>25659</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>53156</v>
+        <v>52868</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4587764506423821</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3068753679557225</v>
+        <v>0.3008006366153887</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6231543863404094</v>
+        <v>0.6197773767356343</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>9</v>
@@ -1207,19 +1207,19 @@
         <v>11891</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5682</v>
+        <v>6009</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>20176</v>
+        <v>20852</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2359264833988342</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1127316733849604</v>
+        <v>0.1192108467980227</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.400301832197369</v>
+        <v>0.4136969983292052</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>25</v>
@@ -1228,19 +1228,19 @@
         <v>51026</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>35267</v>
+        <v>35934</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>69000</v>
+        <v>67162</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3760060249039517</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2598788668969454</v>
+        <v>0.2647943038653473</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5084572141857787</v>
+        <v>0.4949162751913426</v>
       </c>
     </row>
     <row r="12">
@@ -1257,19 +1257,19 @@
         <v>13407</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6145</v>
+        <v>6242</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>24362</v>
+        <v>24016</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1571696947043198</v>
+        <v>0.1571696947043199</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07204406284035667</v>
+        <v>0.07317590819601841</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2855975538346158</v>
+        <v>0.2815424891289146</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>9</v>
@@ -1278,19 +1278,19 @@
         <v>7831</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3480</v>
+        <v>3638</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>13755</v>
+        <v>14313</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.1553681750612176</v>
+        <v>0.1553681750612175</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06903448140331667</v>
+        <v>0.07217264639886595</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2728968115219004</v>
+        <v>0.2839779426711551</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>19</v>
@@ -1299,19 +1299,19 @@
         <v>21238</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>12977</v>
+        <v>12043</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>34274</v>
+        <v>33935</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1565005783940053</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09562783645482045</v>
+        <v>0.0887412386727503</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2525619658490835</v>
+        <v>0.2500635540234392</v>
       </c>
     </row>
     <row r="13">
@@ -1328,19 +1328,19 @@
         <v>9650</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3695</v>
+        <v>3246</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23149</v>
+        <v>20628</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1131285866049972</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04331437420118706</v>
+        <v>0.03805640897668606</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2713834203587572</v>
+        <v>0.2418204464070028</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -1349,19 +1349,19 @@
         <v>9428</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4368</v>
+        <v>4568</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17153</v>
+        <v>17045</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1870500322248717</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08665778735471337</v>
+        <v>0.09062087204337813</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.340324400304285</v>
+        <v>0.3381840575638082</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>14</v>
@@ -1370,19 +1370,19 @@
         <v>19078</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10632</v>
+        <v>10841</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>32186</v>
+        <v>32403</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1405843210654401</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07834659747667855</v>
+        <v>0.07988465606782445</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2371793417441989</v>
+        <v>0.2387733862192231</v>
       </c>
     </row>
     <row r="14">
@@ -1399,19 +1399,19 @@
         <v>19406</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>10249</v>
+        <v>10406</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>31272</v>
+        <v>30543</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2275001927401</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1201474607464401</v>
+        <v>0.121989437321998</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3666038572782024</v>
+        <v>0.3580621382556558</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>19</v>
@@ -1420,19 +1420,19 @@
         <v>17228</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>10700</v>
+        <v>10759</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>25934</v>
+        <v>25431</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3418025562346726</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2122803784170577</v>
+        <v>0.2134507132748047</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.514523709259096</v>
+        <v>0.5045450152119066</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>33</v>
@@ -1441,19 +1441,19 @@
         <v>36634</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>23905</v>
+        <v>25660</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>48852</v>
+        <v>50664</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.2699541154683679</v>
+        <v>0.2699541154683678</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1761575927057495</v>
+        <v>0.1890844234628697</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3599917093779403</v>
+        <v>0.3733410751663446</v>
       </c>
     </row>
     <row r="15">
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2199</v>
+        <v>2381</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03108272575654909</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1500195431954454</v>
+        <v>0.162481530376469</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2489</v>
+        <v>2629</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01631740305170247</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08915547015833505</v>
+        <v>0.09414428943588925</v>
       </c>
     </row>
     <row r="17">
@@ -1608,19 +1608,19 @@
         <v>9000</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4345</v>
+        <v>4354</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>12412</v>
+        <v>12338</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6785923933575058</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3276361825358472</v>
+        <v>0.3283003466712782</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9358535970574996</v>
+        <v>0.9302774287752813</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -1629,19 +1629,19 @@
         <v>4791</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1634</v>
+        <v>1535</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9472</v>
+        <v>9258</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3268448231050607</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.111453857558528</v>
+        <v>0.1047234167318954</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6462591402134901</v>
+        <v>0.6316294819178901</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>9</v>
@@ -1650,19 +1650,19 @@
         <v>13791</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7374</v>
+        <v>7679</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>19906</v>
+        <v>20325</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4939365519998073</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.264105053607853</v>
+        <v>0.2750293064446254</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7129751421713779</v>
+        <v>0.7279850213518331</v>
       </c>
     </row>
     <row r="18">
@@ -1692,19 +1692,19 @@
         <v>4874</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1823</v>
+        <v>1608</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>9455</v>
+        <v>9105</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3325223433822178</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1243959629267315</v>
+        <v>0.1096978595836738</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6450987002367569</v>
+        <v>0.6211754056736232</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>5</v>
@@ -1713,19 +1713,19 @@
         <v>4874</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1592</v>
+        <v>1676</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>11253</v>
+        <v>11104</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1745632330691277</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05701749670763771</v>
+        <v>0.06002952327966751</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4030579057166808</v>
+        <v>0.3977114979465085</v>
       </c>
     </row>
     <row r="19">
@@ -1745,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5327</v>
+        <v>6124</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.09210850323556975</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4016593738945775</v>
+        <v>0.4617462801665533</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4498</v>
+        <v>4792</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09975783251279496</v>
@@ -1775,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3068675857608826</v>
+        <v>0.3269549421465446</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>3</v>
@@ -1784,19 +1784,19 @@
         <v>2684</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>655</v>
+        <v>642</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>7687</v>
+        <v>7457</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.09612414812686031</v>
+        <v>0.09612414812686029</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02345889097128518</v>
+        <v>0.02298343400692167</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2753175270612042</v>
+        <v>0.267082562177083</v>
       </c>
     </row>
     <row r="20">
@@ -1813,19 +1813,19 @@
         <v>3041</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8197</v>
+        <v>7342</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2292991034069244</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04604623499596643</v>
+        <v>0.0456138898309943</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6180102982318617</v>
+        <v>0.5535913442246324</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -1834,19 +1834,19 @@
         <v>3075</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1001</v>
+        <v>970</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6940</v>
+        <v>6562</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2097922752433775</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06828045416478588</v>
+        <v>0.06614599038930663</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4735012730455433</v>
+        <v>0.4477358499824759</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>8</v>
@@ -1855,19 +1855,19 @@
         <v>6116</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2398</v>
+        <v>2565</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>11478</v>
+        <v>11421</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2190586637525022</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08587608940798068</v>
+        <v>0.09186428697354244</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4110990512253806</v>
+        <v>0.4090693213840159</v>
       </c>
     </row>
     <row r="21">
@@ -1959,19 +1959,19 @@
         <v>3704</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1089</v>
+        <v>1026</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>10347</v>
+        <v>9388</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.03412136360381401</v>
+        <v>0.034121363603814</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01003149189862108</v>
+        <v>0.009454793442129751</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09530768879513311</v>
+        <v>0.08648038848980545</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -1980,19 +1980,19 @@
         <v>4480</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1141</v>
+        <v>1065</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>13713</v>
+        <v>13211</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.06788975476281038</v>
+        <v>0.06788975476281037</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01729413654765912</v>
+        <v>0.01613839703622643</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2077857062693119</v>
+        <v>0.2001780382015587</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>7</v>
@@ -2001,19 +2001,19 @@
         <v>8185</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3300</v>
+        <v>3620</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>18763</v>
+        <v>17801</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0468883979815534</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0189025679798316</v>
+        <v>0.02073745361507094</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1074899164194992</v>
+        <v>0.101979285018292</v>
       </c>
     </row>
     <row r="23">
@@ -2030,19 +2030,19 @@
         <v>52694</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>38391</v>
+        <v>39139</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>68729</v>
+        <v>69559</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.4853881452378659</v>
+        <v>0.4853881452378658</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3536348659839759</v>
+        <v>0.360525076970941</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6330957226062459</v>
+        <v>0.6407448888351645</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>14</v>
@@ -2051,19 +2051,19 @@
         <v>17068</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>9898</v>
+        <v>9950</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>26164</v>
+        <v>26488</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2586256810624503</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1499788636826419</v>
+        <v>0.1507679041134311</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3964481208201629</v>
+        <v>0.4013574567074353</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>38</v>
@@ -2072,19 +2072,19 @@
         <v>69762</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>53895</v>
+        <v>53278</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>89046</v>
+        <v>87652</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.3996545915699666</v>
+        <v>0.3996545915699667</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3087548772340608</v>
+        <v>0.3052221694411867</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5101287107826029</v>
+        <v>0.5021448329221202</v>
       </c>
     </row>
     <row r="24">
@@ -2101,19 +2101,19 @@
         <v>17988</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9784</v>
+        <v>8931</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>29999</v>
+        <v>28913</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.1656992670538537</v>
+        <v>0.1656992670538536</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.09012803854566084</v>
+        <v>0.0822674934883915</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2763370972176566</v>
+        <v>0.2663274986577306</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>15</v>
@@ -2122,19 +2122,19 @@
         <v>13254</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>7995</v>
+        <v>7710</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>22120</v>
+        <v>21631</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2008312862060588</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1211467030527291</v>
+        <v>0.1168282571066376</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3351741042832903</v>
+        <v>0.3277598751785977</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>28</v>
@@ -2143,19 +2143,19 @@
         <v>31242</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>20681</v>
+        <v>21597</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>46308</v>
+        <v>45120</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.178981857099785</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1184757658655104</v>
+        <v>0.123724807321798</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2652945688531598</v>
+        <v>0.2584883378929023</v>
       </c>
     </row>
     <row r="25">
@@ -2172,19 +2172,19 @@
         <v>10872</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>4857</v>
+        <v>4196</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>22670</v>
+        <v>24415</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1001441449018378</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04474119560421597</v>
+        <v>0.03865027043066363</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2088278479735856</v>
+        <v>0.2248952376683952</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>10</v>
@@ -2193,19 +2193,19 @@
         <v>10890</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>5371</v>
+        <v>5334</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>19886</v>
+        <v>20190</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.1650125647044539</v>
+        <v>0.1650125647044538</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08138483250670514</v>
+        <v>0.08081690697400946</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3013274851572186</v>
+        <v>0.305935194596237</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>17</v>
@@ -2214,19 +2214,19 @@
         <v>21762</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>12977</v>
+        <v>12738</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>35492</v>
+        <v>35614</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1246693685570072</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07434456295316844</v>
+        <v>0.07297340694573436</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2033274837879132</v>
+        <v>0.2040299006905538</v>
       </c>
     </row>
     <row r="26">
@@ -2243,19 +2243,19 @@
         <v>23302</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>13524</v>
+        <v>13569</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>35754</v>
+        <v>35631</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2146470792026287</v>
+        <v>0.2146470792026286</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1245806874846625</v>
+        <v>0.124987141710144</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3293463043592925</v>
+        <v>0.3282154216029717</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>24</v>
@@ -2264,19 +2264,19 @@
         <v>20303</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>13146</v>
+        <v>13105</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>29943</v>
+        <v>29613</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3076407132642268</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1991951913102173</v>
+        <v>0.1985708256357639</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4537160104981279</v>
+        <v>0.4487212412128646</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>42</v>
@@ -2285,19 +2285,19 @@
         <v>43605</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>31356</v>
+        <v>31540</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>58478</v>
+        <v>58435</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.2498057847916878</v>
+        <v>0.2498057847916877</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1796311194607804</v>
+        <v>0.1806864786441118</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3350098208929416</v>
+        <v>0.3347661419762137</v>
       </c>
     </row>
     <row r="27">
